--- a/CRM/Mapeos_CLS_CRM_V3.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.xlsx
@@ -2350,7 +2350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="281">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3190,6 +3190,9 @@
   </si>
   <si>
     <t>Validaciones Generales AA_TIPO_DOC /3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>CHAR(15)</t>
   </si>
 </sst>
 </file>
@@ -4892,7 +4895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13197,8 +13200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13706,7 +13709,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>

--- a/CRM/Mapeos_CLS_CRM_V3.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" activeTab="4"/>
+    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PSXLATITEMLANG" sheetId="22" r:id="rId1"/>
@@ -4895,7 +4895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4905,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5508,7 +5508,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -8180,8 +8180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8848,7 +8848,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -8952,8 +8952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9484,7 +9484,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -9588,8 +9588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10271,7 +10271,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -10390,8 +10390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10974,7 +10974,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -11078,2129 +11078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-    </row>
-    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24">
-        <v>4</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="51">
-        <v>11</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="41">
-        <v>16</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="25">
-        <v>2</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="48">
-        <v>10</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="38">
-        <v>12</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="25">
-        <v>11</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="25">
-        <v>3</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="48">
-        <v>30</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="38">
-        <v>13</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="25">
-        <v>12</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="25">
-        <v>4</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="48">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="38">
-        <v>14</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="25">
-        <v>17</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="42"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="95">
-        <v>5</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="48">
-        <v>1</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="38">
-        <v>15</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="25">
-        <v>18</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="42"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="95">
-        <v>6</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="48">
-        <v>1</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="38">
-        <v>16</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="25">
-        <v>14</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="42"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="95">
-        <v>7</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="48">
-        <v>22</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="38">
-        <v>17</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="25">
-        <v>14</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="42"/>
-    </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95">
-        <v>8</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="48">
-        <v>22</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="36">
-        <v>18</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="25">
-        <v>14</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="42"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="95">
-        <v>9</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="48">
-        <v>22</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="96"/>
-      <c r="J17" s="58"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="25">
-        <v>11</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
-    </row>
-    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="97">
-        <v>10</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="98">
-        <v>1</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="108">
-        <v>15</v>
-      </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="47"/>
-      <c r="M19" s="25">
-        <v>13</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="42"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="47"/>
-      <c r="M20" s="25">
-        <v>1</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="47"/>
-      <c r="M21" s="38">
-        <v>2</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="47"/>
-      <c r="M22" s="38">
-        <v>13</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="39"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="47"/>
-      <c r="M23" s="38">
-        <v>3</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="56"/>
-      <c r="M24" s="36">
-        <v>3</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I7:K7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R24"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-    </row>
-    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
-        <v>1</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="81">
-        <v>22</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="51">
-        <v>4</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="41">
-        <v>9</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="25">
-        <v>2</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="35">
-        <v>80</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="38">
-        <v>5</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="25">
-        <v>4</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83">
-        <v>3</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="112">
-        <v>40</v>
-      </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="38">
-        <v>6</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="25">
-        <v>5</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="63"/>
-      <c r="I12" s="38">
-        <v>7</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="25">
-        <v>10</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="42"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
-      <c r="I13" s="38">
-        <v>8</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="25">
-        <v>11</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="42"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="38">
-        <v>9</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="25">
-        <v>7</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="42"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="38">
-        <v>10</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="25">
-        <v>7</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="42"/>
-    </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="64"/>
-      <c r="I16" s="36">
-        <v>11</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="25">
-        <v>7</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="42"/>
-    </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J17" s="58"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="25">
-        <v>4</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
-    </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="47"/>
-      <c r="M18" s="108">
-        <v>8</v>
-      </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
-    </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="47"/>
-      <c r="M19" s="25">
-        <v>6</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="42"/>
-    </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="47"/>
-      <c r="M20" s="25">
-        <v>1</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="47"/>
-      <c r="M21" s="38">
-        <v>3</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="47"/>
-      <c r="M22" s="38">
-        <v>6</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="39"/>
-    </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="47"/>
-      <c r="M23" s="38">
-        <v>3</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="10:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="56"/>
-      <c r="M24" s="36">
-        <v>2</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I7:K7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-    </row>
-    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24">
-        <v>18</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="51">
-        <v>14</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="41">
-        <v>19</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="25">
-        <v>2</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="48">
-        <v>20</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="38">
-        <v>15</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="31">
-        <v>14</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="25">
-        <v>3</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="48">
-        <v>5</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="38">
-        <v>16</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="31">
-        <v>15</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="25">
-        <v>4</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="48">
-        <v>3</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="38">
-        <v>17</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="25">
-        <v>20</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="42"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="95">
-        <v>5</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="48">
-        <v>30</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="38">
-        <v>18</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="25">
-        <v>21</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="42"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="95">
-        <v>6</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="48">
-        <v>30</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="38">
-        <v>19</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="25">
-        <v>17</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="42"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="95">
-        <v>7</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="48">
-        <v>22</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="38">
-        <v>20</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="25">
-        <v>17</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="42"/>
-    </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95">
-        <v>8</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="48">
-        <v>7</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="36">
-        <v>21</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="25">
-        <v>17</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="42"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="95">
-        <v>9</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="48">
-        <v>30</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="96"/>
-      <c r="J17" s="58"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="25">
-        <v>14</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="95">
-        <v>10</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="48">
-        <v>7</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="96"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="108">
-        <v>18</v>
-      </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="95">
-        <v>11</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="48">
-        <v>30</v>
-      </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="96"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="25">
-        <v>16</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="42"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="95">
-        <v>12</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="48">
-        <v>22</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="96"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="25">
-        <v>2</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="97">
-        <v>13</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="98">
-        <v>7</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="38">
-        <v>6</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="47"/>
-      <c r="M22" s="38">
-        <v>16</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="39"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="47"/>
-      <c r="M23" s="38">
-        <v>6</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="56"/>
-      <c r="M24" s="36">
-        <v>6</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I7:K7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -13239,6 +11117,2128 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="129" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="133"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+    </row>
+    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="79">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="24">
+        <v>4</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="51">
+        <v>11</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="41">
+        <v>16</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="48">
+        <v>10</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="38">
+        <v>12</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="25">
+        <v>11</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="25">
+        <v>3</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="48">
+        <v>30</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="38">
+        <v>13</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="91"/>
+      <c r="M11" s="25">
+        <v>12</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="25">
+        <v>4</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="38">
+        <v>14</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="M12" s="25">
+        <v>17</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="95">
+        <v>5</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="48">
+        <v>1</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="38">
+        <v>15</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="25">
+        <v>18</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="95">
+        <v>6</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="48">
+        <v>1</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="38">
+        <v>16</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="25">
+        <v>14</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="95">
+        <v>7</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="48">
+        <v>22</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="38">
+        <v>17</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="25">
+        <v>14</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="95">
+        <v>8</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="48">
+        <v>22</v>
+      </c>
+      <c r="F16" s="92"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="36">
+        <v>18</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="25">
+        <v>14</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="95">
+        <v>9</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="48">
+        <v>22</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="96"/>
+      <c r="J17" s="58"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="25">
+        <v>11</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="97">
+        <v>10</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="98">
+        <v>1</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="108">
+        <v>15</v>
+      </c>
+      <c r="N18" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="110"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L19" s="47"/>
+      <c r="M19" s="25">
+        <v>13</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L20" s="47"/>
+      <c r="M20" s="25">
+        <v>1</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L21" s="47"/>
+      <c r="M21" s="38">
+        <v>2</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="39"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="47"/>
+      <c r="M22" s="38">
+        <v>13</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="47"/>
+      <c r="M23" s="38">
+        <v>3</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="56"/>
+      <c r="M24" s="36">
+        <v>3</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R24"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="129" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="133"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+    </row>
+    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="79">
+        <v>1</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="81">
+        <v>22</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="51">
+        <v>4</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="41">
+        <v>9</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="35">
+        <v>80</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="38">
+        <v>5</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="25">
+        <v>4</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="83">
+        <v>3</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="112">
+        <v>40</v>
+      </c>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="38">
+        <v>6</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="91"/>
+      <c r="M11" s="25">
+        <v>5</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H12" s="63"/>
+      <c r="I12" s="38">
+        <v>7</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="M12" s="25">
+        <v>10</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H13" s="63"/>
+      <c r="I13" s="38">
+        <v>8</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="25">
+        <v>11</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H14" s="63"/>
+      <c r="I14" s="38">
+        <v>9</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="25">
+        <v>7</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H15" s="63"/>
+      <c r="I15" s="38">
+        <v>10</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="25">
+        <v>7</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="64"/>
+      <c r="I16" s="36">
+        <v>11</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="25">
+        <v>7</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J17" s="58"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="25">
+        <v>4</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="47"/>
+      <c r="M18" s="108">
+        <v>8</v>
+      </c>
+      <c r="N18" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="110"/>
+    </row>
+    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="L19" s="47"/>
+      <c r="M19" s="25">
+        <v>6</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="L20" s="47"/>
+      <c r="M20" s="25">
+        <v>1</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="L21" s="47"/>
+      <c r="M21" s="38">
+        <v>3</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="39"/>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="47"/>
+      <c r="M22" s="38">
+        <v>6</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="47"/>
+      <c r="M23" s="38">
+        <v>3</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="10:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="56"/>
+      <c r="M24" s="36">
+        <v>2</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R24"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="133"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+    </row>
+    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="79">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="24">
+        <v>18</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="51">
+        <v>14</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="41">
+        <v>19</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="48">
+        <v>20</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="38">
+        <v>15</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="31">
+        <v>14</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="25">
+        <v>3</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="48">
+        <v>5</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="38">
+        <v>16</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="91"/>
+      <c r="M11" s="31">
+        <v>15</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="25">
+        <v>4</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="48">
+        <v>3</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="38">
+        <v>17</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="M12" s="25">
+        <v>20</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="95">
+        <v>5</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="48">
+        <v>30</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="38">
+        <v>18</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="25">
+        <v>21</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="95">
+        <v>6</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="48">
+        <v>30</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="38">
+        <v>19</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="25">
+        <v>17</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="95">
+        <v>7</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="48">
+        <v>22</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="38">
+        <v>20</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="25">
+        <v>17</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="95">
+        <v>8</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="48">
+        <v>7</v>
+      </c>
+      <c r="F16" s="92"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="36">
+        <v>21</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="25">
+        <v>17</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="95">
+        <v>9</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="48">
+        <v>30</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="96"/>
+      <c r="J17" s="58"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="25">
+        <v>14</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="95">
+        <v>10</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="48">
+        <v>7</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="96"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="108">
+        <v>18</v>
+      </c>
+      <c r="N18" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="110"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="95">
+        <v>11</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="48">
+        <v>30</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="96"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="25">
+        <v>16</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="95">
+        <v>12</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="48">
+        <v>22</v>
+      </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="96"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="25">
+        <v>2</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="97">
+        <v>13</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="98">
+        <v>7</v>
+      </c>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="38">
+        <v>6</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="39"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="47"/>
+      <c r="M22" s="38">
+        <v>16</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="47"/>
+      <c r="M23" s="38">
+        <v>6</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="56"/>
+      <c r="M24" s="36">
+        <v>6</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R24"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="126" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="127"/>
@@ -13813,8 +13813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14383,7 +14383,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -14487,8 +14487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15122,7 +15122,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -15556,8 +15556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16112,7 +16112,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -16216,8 +16216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16762,7 +16762,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
